--- a/Automation/src/main/java/testData/sample.xlsx
+++ b/Automation/src/main/java/testData/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Testing\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cchitneedi\eclipse-2\Automation\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83288A8-090E-4D5F-8A7A-E7EC199B96C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE81B65-E9ED-4009-A991-DBC2E3C25BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="callouts" sheetId="2" r:id="rId1"/>
@@ -53,36 +53,18 @@
     <t>Excel Callouts-2</t>
   </si>
   <si>
-    <t>Excel Callouts-3</t>
-  </si>
-  <si>
-    <t>Excel Callouts-4</t>
-  </si>
-  <si>
     <t>Subtitle-1</t>
   </si>
   <si>
     <t>Subtitle-2</t>
   </si>
   <si>
-    <t>Subtitle-3</t>
-  </si>
-  <si>
-    <t>Subtitle-4</t>
-  </si>
-  <si>
     <t>callouts description-1</t>
   </si>
   <si>
     <t>callouts description-2</t>
   </si>
   <si>
-    <t>callouts description-3</t>
-  </si>
-  <si>
-    <t>callouts description-4</t>
-  </si>
-  <si>
     <t>Resource Title</t>
   </si>
   <si>
@@ -129,6 +111,24 @@
   </si>
   <si>
     <t>NESNES</t>
+  </si>
+  <si>
+    <t>Resource Title-32</t>
+  </si>
+  <si>
+    <t>978-3-16-148410-4</t>
+  </si>
+  <si>
+    <t>Resource SubTitle-32</t>
+  </si>
+  <si>
+    <t>Azeez</t>
+  </si>
+  <si>
+    <t>workflow in resource flow for Resource Title-32</t>
+  </si>
+  <si>
+    <t>revision log message for Resource Title-32</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,17 +195,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A696E4-CDE2-4479-91E0-317E4D8124B8}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,32 +539,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -564,10 +554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE12593C-B8BB-4423-A368-C6E825C58E5B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,48 +573,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>360029145</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C3" s="1">
+        <v>360029146</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -660,15 +673,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/src/main/java/testData/sample.xlsx
+++ b/Automation/src/main/java/testData/sample.xlsx
@@ -8,14 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cchitneedi\eclipse-2\Automation\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE81B65-E9ED-4009-A991-DBC2E3C25BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0A9939-249F-4B22-A841-E4DF8C246FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="callouts" sheetId="2" r:id="rId1"/>
-    <sheet name="resourceflows" sheetId="3" r:id="rId2"/>
-    <sheet name="login" sheetId="1" r:id="rId3"/>
+    <sheet name="newsarticles" sheetId="10" r:id="rId2"/>
+    <sheet name="deletenewsarticle" sheetId="11" r:id="rId3"/>
+    <sheet name="deletecallout" sheetId="6" r:id="rId4"/>
+    <sheet name="resourceflows" sheetId="3" r:id="rId5"/>
+    <sheet name="updatecallout" sheetId="4" r:id="rId6"/>
+    <sheet name="updatenews" sheetId="12" r:id="rId7"/>
+    <sheet name="updateresourceflows" sheetId="8" r:id="rId8"/>
+    <sheet name="inputcalloutttitle" sheetId="5" r:id="rId9"/>
+    <sheet name="inputresourceflowtitle" sheetId="9" r:id="rId10"/>
+    <sheet name="inputdbl" sheetId="19" r:id="rId11"/>
+    <sheet name="inputnews" sheetId="13" r:id="rId12"/>
+    <sheet name="custom" sheetId="14" r:id="rId13"/>
+    <sheet name="deletedbl" sheetId="18" r:id="rId14"/>
+    <sheet name="deletecustom" sheetId="15" r:id="rId15"/>
+    <sheet name="inputcustom" sheetId="16" r:id="rId16"/>
+    <sheet name="dblisting" sheetId="17" r:id="rId17"/>
+    <sheet name="deleteresourceflow" sheetId="7" r:id="rId18"/>
+    <sheet name="login" sheetId="1" r:id="rId19"/>
+    <sheet name="directory" sheetId="20" r:id="rId20"/>
+    <sheet name="inputdirectory" sheetId="21" r:id="rId21"/>
+    <sheet name="deletedirectory" sheetId="22" r:id="rId22"/>
+    <sheet name="pages" sheetId="23" r:id="rId23"/>
+    <sheet name="inputpage" sheetId="24" r:id="rId24"/>
+    <sheet name="deletepage" sheetId="25" r:id="rId25"/>
+    <sheet name="reserves" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="160">
   <si>
     <t>username</t>
   </si>
@@ -129,13 +152,391 @@
   </si>
   <si>
     <t>revision log message for Resource Title-32</t>
+  </si>
+  <si>
+    <t>Academic Journals Sub-e</t>
+  </si>
+  <si>
+    <t>Academic Journals-e</t>
+  </si>
+  <si>
+    <t>Academic journals from excel</t>
+  </si>
+  <si>
+    <t>Main Title</t>
+  </si>
+  <si>
+    <t>subTitle</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Deletecallout Title</t>
+  </si>
+  <si>
+    <t>pubmed</t>
+  </si>
+  <si>
+    <t>pubmed pvt. Ltd</t>
+  </si>
+  <si>
+    <t>pubmed private Limited Description</t>
+  </si>
+  <si>
+    <t>Verizon Research</t>
+  </si>
+  <si>
+    <t>Cred with SubTitle</t>
+  </si>
+  <si>
+    <t>Updated Cred Description</t>
+  </si>
+  <si>
+    <t>Cred Resarch-M</t>
+  </si>
+  <si>
+    <t>Work Flow Cmt</t>
+  </si>
+  <si>
+    <t>Revision Log</t>
+  </si>
+  <si>
+    <t>Verizon Resource</t>
+  </si>
+  <si>
+    <t>Verizon Resource pvt. Ltd</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Verizon Resource work Flow</t>
+  </si>
+  <si>
+    <t>Verizon Resource Logs</t>
+  </si>
+  <si>
+    <t>delete Resource Title</t>
+  </si>
+  <si>
+    <t>ISBN1</t>
+  </si>
+  <si>
+    <t>UPC1</t>
+  </si>
+  <si>
+    <t>SubTitle-1</t>
+  </si>
+  <si>
+    <t>WorkFlow</t>
+  </si>
+  <si>
+    <t>978-3-16-148410-5</t>
+  </si>
+  <si>
+    <t>Cinahal Resources pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Cinahal process</t>
+  </si>
+  <si>
+    <t>cinahal revison Log</t>
+  </si>
+  <si>
+    <t>Title For Edit</t>
+  </si>
+  <si>
+    <t>Cred Resources</t>
+  </si>
+  <si>
+    <t>978-3-16-148410-9</t>
+  </si>
+  <si>
+    <t>Cred Resources pvt ltd</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Cred Resources Work Flow</t>
+  </si>
+  <si>
+    <t>Cred Resources Revision Log</t>
+  </si>
+  <si>
+    <t>Cinahal Resources-e</t>
+  </si>
+  <si>
+    <t>EditedTitle</t>
+  </si>
+  <si>
+    <t>External Link</t>
+  </si>
+  <si>
+    <t>Work Flow Comment</t>
+  </si>
+  <si>
+    <t>DynaMed News Article</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/</t>
+  </si>
+  <si>
+    <t>Jonny</t>
+  </si>
+  <si>
+    <t>DynaMed News Article Work Flow</t>
+  </si>
+  <si>
+    <t>Deleted Callout</t>
+  </si>
+  <si>
+    <t>Work Flow</t>
+  </si>
+  <si>
+    <t>Medline News Article</t>
+  </si>
+  <si>
+    <t>Miraj</t>
+  </si>
+  <si>
+    <t>Medline News Article workflow</t>
+  </si>
+  <si>
+    <t>Umesh</t>
+  </si>
+  <si>
+    <t>Umang News Article work flow</t>
+  </si>
+  <si>
+    <t>Umang - e News Article</t>
+  </si>
+  <si>
+    <t>Title for Edit</t>
+  </si>
+  <si>
+    <t>Edited Title</t>
+  </si>
+  <si>
+    <t>Neliez</t>
+  </si>
+  <si>
+    <t>Enterprise Custom</t>
+  </si>
+  <si>
+    <t>Enterprise Custom Work Flow</t>
+  </si>
+  <si>
+    <t>Delete Custom</t>
+  </si>
+  <si>
+    <t>Cinahal Custom</t>
+  </si>
+  <si>
+    <t>Cinahal Custom work flow</t>
+  </si>
+  <si>
+    <t>Cinahal Custom revision log</t>
+  </si>
+  <si>
+    <t>Verizon Custom</t>
+  </si>
+  <si>
+    <t>Cred Custom-E</t>
+  </si>
+  <si>
+    <t>Cred Custom-E work flow</t>
+  </si>
+  <si>
+    <t>Cred Custom-E Log</t>
+  </si>
+  <si>
+    <t>MedLine Listing</t>
+  </si>
+  <si>
+    <t>Main URL</t>
+  </si>
+  <si>
+    <t>SubTitle1</t>
+  </si>
+  <si>
+    <t>subTitle-1</t>
+  </si>
+  <si>
+    <t>SubURL1</t>
+  </si>
+  <si>
+    <t>https://www.stacksdiscovery.com/</t>
+  </si>
+  <si>
+    <t>Pubmed DBL</t>
+  </si>
+  <si>
+    <t>Pubmed Sub Title</t>
+  </si>
+  <si>
+    <t>Sub Title URL1</t>
+  </si>
+  <si>
+    <t>Sub-Title1</t>
+  </si>
+  <si>
+    <t>Delete DBL Title</t>
+  </si>
+  <si>
+    <t>Cred DBL-E</t>
+  </si>
+  <si>
+    <t>Verizon</t>
+  </si>
+  <si>
+    <t>Sub Title1</t>
+  </si>
+  <si>
+    <t>Sub Title1-E</t>
+  </si>
+  <si>
+    <t>Sub URL1</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Second Name</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Twitter Link</t>
+  </si>
+  <si>
+    <t>Twitter URL</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>Listing1</t>
+  </si>
+  <si>
+    <t>Project developer</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Twitter Title</t>
+  </si>
+  <si>
+    <t>Edited First Name</t>
+  </si>
+  <si>
+    <t>Edited Second Name</t>
+  </si>
+  <si>
+    <t>Edited Job Title</t>
+  </si>
+  <si>
+    <t>Edited Location</t>
+  </si>
+  <si>
+    <t>Edited Twitter</t>
+  </si>
+  <si>
+    <t>Edited twitterURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verizon </t>
+  </si>
+  <si>
+    <t>DL-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinahal </t>
+  </si>
+  <si>
+    <t>Production Manager</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Twitter-E</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Pubmed</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Deleted First Name</t>
+  </si>
+  <si>
+    <t>Page Title</t>
+  </si>
+  <si>
+    <t>Cinahal description Page</t>
+  </si>
+  <si>
+    <t>Cinahal description work Flow</t>
+  </si>
+  <si>
+    <t>Verizon page</t>
+  </si>
+  <si>
+    <t>Edited Page Title</t>
+  </si>
+  <si>
+    <t>Cinahal-E</t>
+  </si>
+  <si>
+    <t>PubMed Page</t>
+  </si>
+  <si>
+    <t>PubMed Page WorkFlow</t>
+  </si>
+  <si>
+    <t>Deleted Page</t>
+  </si>
+  <si>
+    <t>Reserve Title</t>
+  </si>
+  <si>
+    <t>Registrar Course ID</t>
+  </si>
+  <si>
+    <t>Course ID</t>
+  </si>
+  <si>
+    <t>Medline Reserves</t>
+  </si>
+  <si>
+    <t>MD-RC</t>
+  </si>
+  <si>
+    <t>ID-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +558,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,13 +639,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,7 +937,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,12 +987,1095 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4251307B-1FB7-4F18-A523-5E235425B8F0}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1">
+        <v>360029147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE174D-4A0A-49C0-BE8D-3DBAA9534632}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1838E386-BD71-441F-AF22-C1DB0C8A5DC4}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AA02B0-3B6B-4432-B52F-84F38E0E0A00}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B67836-F763-4F7B-A492-5201FCC2476E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D3F0DB-6ABD-4FFB-99C2-2AA84A361FF3}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02C2210-2A79-4D17-BED2-3527288103C8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D24D4DF-57AB-48F5-B753-BF81C3E59AAA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CD727-12C2-4491-9A50-BBF936544759}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>360029145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="NES2021@" xr:uid="{6D8F5128-3C21-4588-AA53-E5E53EA41C50}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB21D-FE3C-4F55-A325-5FCDD355091A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FE3AD0-0D22-45FB-A3C9-B08544970E9F}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D19B10-4090-4A07-B041-E6DA1BE10C84}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB8373F-F2EB-48F7-8B16-63A1A9B59501}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0BE471-7614-4A95-AF9D-7EA02D36B230}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED644719-C037-460A-BCF4-B3089A41DD7D}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC36548-AD3F-48A0-B209-96AF7E665782}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2D5DFA-FF89-4289-9927-DB81737FA7FC}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AADB152-0E75-4644-9DA7-01A03658FFDB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDCB469-DC71-4369-8484-06387D5B6269}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE12593C-B8BB-4423-A368-C6E825C58E5B}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,48 +2164,213 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="NES2021@" xr:uid="{6D8F5128-3C21-4588-AA53-E5E53EA41C50}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66B8B6F-0AC2-4BBB-AD5C-B788EAA5BDAC}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D8BC0B-2B05-4403-B445-23723E1D8478}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A75042-C8A5-4E28-8FE1-889BBBA79FB6}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>360029146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3DC0D0-5E76-4DE8-A8AF-B95C890F2A83}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>